--- a/week02/typography.xlsx
+++ b/week02/typography.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sydneym\OneDrive - First Technology KZN (Pty) Ltd\Documents\Sydney Mangwana\BYU Idaho\Fall Apr-Jun 2022\Web Frontend Development I\WDD-230\week02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F701880-920D-4D18-8477-B17D29E07026}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7171A75A-70A3-4EC9-B6FA-81813FD568E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{7541BC6C-6027-4CE9-A866-FD5C6A6D9E88}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{7541BC6C-6027-4CE9-A866-FD5C6A6D9E88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,11 +133,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CF090E-05AB-48C2-9B5D-6236F02723C9}">
   <dimension ref="F1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,148 +464,148 @@
     <col min="11" max="11" width="21.5703125" customWidth="1"/>
     <col min="12" max="12" width="33.5703125" customWidth="1"/>
     <col min="13" max="13" width="18.42578125" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="14" max="14" width="18" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:22" x14ac:dyDescent="0.25">
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
     </row>
     <row r="2" spans="6:22" x14ac:dyDescent="0.25">
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
     </row>
     <row r="3" spans="6:22" x14ac:dyDescent="0.25">
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
     </row>
     <row r="4" spans="6:22" x14ac:dyDescent="0.25">
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
     </row>
     <row r="5" spans="6:22" x14ac:dyDescent="0.25">
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
     </row>
     <row r="6" spans="6:22" x14ac:dyDescent="0.25">
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="3" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
     </row>
     <row r="7" spans="6:22" x14ac:dyDescent="0.25">
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
     </row>
     <row r="8" spans="6:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
       <c r="K8" t="s">
         <v>0</v>
       </c>
@@ -615,17 +615,17 @@
       <c r="M8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
     </row>
     <row r="9" spans="6:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
       <c r="K9" t="s">
         <v>1</v>
       </c>
@@ -635,17 +635,17 @@
       <c r="M9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
     </row>
     <row r="10" spans="6:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
       <c r="K10" t="s">
         <v>2</v>
       </c>
@@ -655,17 +655,17 @@
       <c r="M10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
     </row>
     <row r="11" spans="6:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
       <c r="K11" t="s">
         <v>3</v>
       </c>
@@ -675,17 +675,17 @@
       <c r="M11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
     </row>
     <row r="12" spans="6:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
       <c r="K12" t="s">
         <v>4</v>
       </c>
@@ -695,17 +695,17 @@
       <c r="M12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
     </row>
     <row r="13" spans="6:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
       <c r="K13" t="s">
         <v>5</v>
       </c>
@@ -715,17 +715,17 @@
       <c r="M13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
     </row>
     <row r="14" spans="6:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
       <c r="K14" t="s">
         <v>10</v>
       </c>
@@ -735,119 +735,119 @@
       <c r="M14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
     </row>
     <row r="15" spans="6:22" x14ac:dyDescent="0.25">
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
     </row>
     <row r="16" spans="6:22" x14ac:dyDescent="0.25">
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
     </row>
     <row r="17" spans="6:22" x14ac:dyDescent="0.25">
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
     </row>
     <row r="18" spans="6:22" x14ac:dyDescent="0.25">
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
     </row>
     <row r="19" spans="6:22" x14ac:dyDescent="0.25">
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
     </row>
     <row r="20" spans="6:22" x14ac:dyDescent="0.25">
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
     </row>
     <row r="21" spans="6:22" x14ac:dyDescent="0.25">
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
     </row>
     <row r="22" spans="6:22" x14ac:dyDescent="0.25">
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
     </row>
     <row r="23" spans="6:22" x14ac:dyDescent="0.25">
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="S6:V23"/>
+    <mergeCell ref="F1:V5"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="F6:J23"/>
-    <mergeCell ref="S6:V23"/>
-    <mergeCell ref="F1:V5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
